--- a/output/Roboto/article2_Roboto.xlsx
+++ b/output/Roboto/article2_Roboto.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,7 +463,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">19th century. </t>
+          <t xml:space="preserve">19th </t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -473,7 +473,7 @@
         <v>644</v>
       </c>
       <c r="D2" t="n">
-        <v>115</v>
+        <v>43</v>
       </c>
       <c r="E2" t="n">
         <v>23</v>
@@ -482,17 +482,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve">“Romantic period” </t>
+          <t xml:space="preserve">century. </t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>751</v>
+        <v>529</v>
       </c>
       <c r="C3" t="n">
         <v>644</v>
       </c>
       <c r="D3" t="n">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="E3" t="n">
         <v>23</v>
@@ -501,17 +501,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve">the Classical period, </t>
+          <t xml:space="preserve">“Romantic </t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>630</v>
+        <v>752</v>
       </c>
       <c r="C4" t="n">
-        <v>667</v>
+        <v>644</v>
       </c>
       <c r="D4" t="n">
-        <v>179</v>
+        <v>93</v>
       </c>
       <c r="E4" t="n">
         <v>23</v>
@@ -520,19 +520,209 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve">sea coming into Fingal’s Cave </t>
+          <t xml:space="preserve">period” </t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>184</v>
+        <v>845</v>
       </c>
       <c r="C5" t="n">
-        <v>1127</v>
+        <v>644</v>
       </c>
       <c r="D5" t="n">
-        <v>261</v>
+        <v>66</v>
       </c>
       <c r="E5" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">the </t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>656</v>
+      </c>
+      <c r="C6" t="n">
+        <v>669</v>
+      </c>
+      <c r="D6" t="n">
+        <v>32</v>
+      </c>
+      <c r="E6" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Classical </t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>688</v>
+      </c>
+      <c r="C7" t="n">
+        <v>669</v>
+      </c>
+      <c r="D7" t="n">
+        <v>83</v>
+      </c>
+      <c r="E7" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">period, </t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>771</v>
+      </c>
+      <c r="C8" t="n">
+        <v>669</v>
+      </c>
+      <c r="D8" t="n">
+        <v>64</v>
+      </c>
+      <c r="E8" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">18th-century </t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>292</v>
+      </c>
+      <c r="C9" t="n">
+        <v>735.4</v>
+      </c>
+      <c r="D9" t="n">
+        <v>112</v>
+      </c>
+      <c r="E9" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pastoral,” </t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>455</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1034.6</v>
+      </c>
+      <c r="D10" t="n">
+        <v>88</v>
+      </c>
+      <c r="E10" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">sea </t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>272</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1126</v>
+      </c>
+      <c r="D11" t="n">
+        <v>37</v>
+      </c>
+      <c r="E11" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">coming </t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>309</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1126</v>
+      </c>
+      <c r="D12" t="n">
+        <v>68</v>
+      </c>
+      <c r="E12" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">into </t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>377</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1126</v>
+      </c>
+      <c r="D13" t="n">
+        <v>37</v>
+      </c>
+      <c r="E13" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fingal’s </t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>414</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1126</v>
+      </c>
+      <c r="D14" t="n">
+        <v>72</v>
+      </c>
+      <c r="E14" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cave </t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>486</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1126</v>
+      </c>
+      <c r="D15" t="n">
+        <v>51</v>
+      </c>
+      <c r="E15" t="n">
         <v>23</v>
       </c>
     </row>
